--- a/individual_results/avey/426.xlsx
+++ b/individual_results/avey/426.xlsx
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -594,19 +594,19 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="P2" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -643,43 +643,43 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
         <v>0.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -711,37 +711,29 @@
         <v>0.4</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="S4" t="n">
         <v>0.4</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>0.4</v>
@@ -770,37 +762,29 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.9090909090909091</v>
       </c>
       <c r="P5" t="n">
-        <v>0.625</v>
+        <v>0.3125</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="S5" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="T5" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>0.4545454545454545</v>
@@ -834,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2754115523761866</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2754115523761866</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -858,19 +842,19 @@
         <v>0.7967075809905066</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9639404333166532</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="S6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2754115523761866</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -913,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -986,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1059,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1121,9 +1105,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>1</v>
       </c>
